--- a/vectorSearchTesting/timings_avarage_20_40_60_question_score_0_9.xlsx
+++ b/vectorSearchTesting/timings_avarage_20_40_60_question_score_0_9.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Krisztina_PC\flask-chatbot\vectorSearchTesting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0970B859-6176-4DD4-8647-0E01A9C96C81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEED612A-9CF1-492A-B807-45FD2B2D7342}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{60AB4DC5-67A2-422B-87F6-99B26316B3DC}"/>
   </bookViews>
@@ -38,21 +38,9 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
-    <t xml:space="preserve"> kérdések száma</t>
-  </si>
-  <si>
-    <t>kontextus összeállitási idő átlaga</t>
-  </si>
-  <si>
     <t>LLM feldolgozási idő átlaga</t>
   </si>
   <si>
-    <t>teljes feldoldozási idő átlaga</t>
-  </si>
-  <si>
-    <t>embedding  generálásai idő átlaga</t>
-  </si>
-  <si>
     <t>0.65/s</t>
   </si>
   <si>
@@ -65,9 +53,6 @@
     <t>3.41/s</t>
   </si>
   <si>
-    <t>szemantikus hasonlóság mérékének  (BERTScore F1) átlaga (0-1) között</t>
-  </si>
-  <si>
     <t>0.58/s</t>
   </si>
   <si>
@@ -77,9 +62,6 @@
     <t>3.29/s</t>
   </si>
   <si>
-    <t>score: 0.90 ; LLM modell: gemini-2.0-flash; top_k=50</t>
-  </si>
-  <si>
     <t>1.45/s</t>
   </si>
   <si>
@@ -90,6 +72,24 @@
   </si>
   <si>
     <t>8.1/s</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Kérdések száma</t>
+  </si>
+  <si>
+    <t>Embedding  generálásai idő átlaga</t>
+  </si>
+  <si>
+    <t>Kontextus összeállitási idő átlaga</t>
+  </si>
+  <si>
+    <t>Teljes feldoldozási idő átlaga</t>
+  </si>
+  <si>
+    <t>Szemantikus hasonlóság mérékének  (BERTScore F1) átlaga (0-1) között</t>
+  </si>
+  <si>
+    <t>küszöbérték: 0.90; LLM modell: gemini-2.0-flash; top_k=50</t>
   </si>
 </sst>
 </file>
@@ -515,8 +515,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25AD00FE-28EE-4940-A4E3-A5FDF101AEEF}">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17:G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -542,7 +542,7 @@
     <row r="4" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -552,22 +552,22 @@
     </row>
     <row r="6" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="E6" s="1" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
@@ -575,16 +575,16 @@
         <v>20</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F7" s="4">
         <v>0.85</v>
@@ -595,16 +595,16 @@
         <v>40</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C8" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="E8" s="3" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F8" s="3">
         <v>0.83</v>
@@ -615,16 +615,16 @@
         <v>60</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F9" s="3">
         <v>0.82</v>
